--- a/data/pca/factorExposure/factorExposure_2015-07-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-07-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01936226851747653</v>
+        <v>0.01070925706374815</v>
       </c>
       <c r="C2">
-        <v>-0.02850863343706811</v>
+        <v>-0.05220491049487733</v>
       </c>
       <c r="D2">
-        <v>-0.1299868817360313</v>
+        <v>0.1474950224750968</v>
       </c>
       <c r="E2">
-        <v>0.0104160252680173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.006467165314278682</v>
+      </c>
+      <c r="F2">
+        <v>0.01401806613091911</v>
+      </c>
+      <c r="G2">
+        <v>-0.1251033827905811</v>
+      </c>
+      <c r="H2">
+        <v>-0.0684827783241593</v>
+      </c>
+      <c r="I2">
+        <v>0.03502728141126535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.003392290500267828</v>
+        <v>-0.007146116713751371</v>
       </c>
       <c r="C3">
-        <v>-0.02312857957355083</v>
+        <v>-0.013772267158906</v>
       </c>
       <c r="D3">
-        <v>-0.01524643812889237</v>
+        <v>0.01188801660572569</v>
       </c>
       <c r="E3">
-        <v>0.007174406455102232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.01652108194877908</v>
+      </c>
+      <c r="F3">
+        <v>-0.01277103649876326</v>
+      </c>
+      <c r="G3">
+        <v>0.003660865963772511</v>
+      </c>
+      <c r="H3">
+        <v>-0.006229357863147107</v>
+      </c>
+      <c r="I3">
+        <v>-0.02889817649290998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04350155082585588</v>
+        <v>0.02134811482463748</v>
       </c>
       <c r="C4">
-        <v>-0.07222319205202053</v>
+        <v>-0.09912366236257374</v>
       </c>
       <c r="D4">
-        <v>-0.1323621744467164</v>
+        <v>0.1417095898457392</v>
       </c>
       <c r="E4">
-        <v>0.0707066182397799</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.0161237120802237</v>
+      </c>
+      <c r="F4">
+        <v>0.08628826914285628</v>
+      </c>
+      <c r="G4">
+        <v>-0.006765840570146942</v>
+      </c>
+      <c r="H4">
+        <v>-0.04385620418482238</v>
+      </c>
+      <c r="I4">
+        <v>0.0296699263916019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02473932653751659</v>
+        <v>0.02927919464699645</v>
       </c>
       <c r="C6">
-        <v>-0.01394128779473778</v>
+        <v>-0.02919677659671859</v>
       </c>
       <c r="D6">
-        <v>-0.1452951184234581</v>
+        <v>0.1303970507063748</v>
       </c>
       <c r="E6">
-        <v>0.03124950656908602</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.04414967916100324</v>
+      </c>
+      <c r="F6">
+        <v>0.05212136244284052</v>
+      </c>
+      <c r="G6">
+        <v>-0.01498174230542027</v>
+      </c>
+      <c r="H6">
+        <v>-0.05394534128869845</v>
+      </c>
+      <c r="I6">
+        <v>-0.01931918558923294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.007928430103065836</v>
+        <v>0.01000469416881581</v>
       </c>
       <c r="C7">
-        <v>-0.02371342277082677</v>
+        <v>-0.03356051578093401</v>
       </c>
       <c r="D7">
-        <v>-0.1142201938785999</v>
+        <v>0.1029001975623792</v>
       </c>
       <c r="E7">
-        <v>-0.006541411899848244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.04730331577448181</v>
+      </c>
+      <c r="F7">
+        <v>0.007070716143020537</v>
+      </c>
+      <c r="G7">
+        <v>0.001645575887742205</v>
+      </c>
+      <c r="H7">
+        <v>-0.07275327428632876</v>
+      </c>
+      <c r="I7">
+        <v>-0.02312760843238458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-4.340031757046706e-05</v>
+        <v>-0.008815992119231427</v>
       </c>
       <c r="C8">
-        <v>-0.02792236031443769</v>
+        <v>-0.03349915191501966</v>
       </c>
       <c r="D8">
-        <v>-0.0826138314905787</v>
+        <v>0.08198298451999894</v>
       </c>
       <c r="E8">
-        <v>0.01867538381062774</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01811639532715413</v>
+      </c>
+      <c r="F8">
+        <v>0.04148007744423395</v>
+      </c>
+      <c r="G8">
+        <v>-0.06956797119981642</v>
+      </c>
+      <c r="H8">
+        <v>-0.000118606946020589</v>
+      </c>
+      <c r="I8">
+        <v>-0.03516299309526952</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03697253437867038</v>
+        <v>0.01665579774010408</v>
       </c>
       <c r="C9">
-        <v>-0.06329201211850226</v>
+        <v>-0.08378405628715201</v>
       </c>
       <c r="D9">
-        <v>-0.1357050187573925</v>
+        <v>0.1236214504061666</v>
       </c>
       <c r="E9">
-        <v>0.05996116610929884</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.004969872929152712</v>
+      </c>
+      <c r="F9">
+        <v>0.0578143586045127</v>
+      </c>
+      <c r="G9">
+        <v>0.01284628199204986</v>
+      </c>
+      <c r="H9">
+        <v>-0.05612302411507503</v>
+      </c>
+      <c r="I9">
+        <v>-0.0004936719325567236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1501968451345528</v>
+        <v>0.2244617455964211</v>
       </c>
       <c r="C10">
-        <v>0.1818220897658328</v>
+        <v>0.1078568386015282</v>
       </c>
       <c r="D10">
-        <v>-0.01921682409967775</v>
+        <v>-2.977726521281853e-05</v>
       </c>
       <c r="E10">
-        <v>0.04237910398357344</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02291390335343042</v>
+      </c>
+      <c r="F10">
+        <v>0.04031538086118786</v>
+      </c>
+      <c r="G10">
+        <v>0.003512231312540598</v>
+      </c>
+      <c r="H10">
+        <v>0.05958777261438955</v>
+      </c>
+      <c r="I10">
+        <v>-0.1257282238290777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02339385268030497</v>
+        <v>0.01066675995803538</v>
       </c>
       <c r="C11">
-        <v>-0.04109649421370953</v>
+        <v>-0.05235606895102141</v>
       </c>
       <c r="D11">
-        <v>-0.05269350071586449</v>
+        <v>0.0459740286975007</v>
       </c>
       <c r="E11">
-        <v>-0.01386733623508455</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.01865822114342596</v>
+      </c>
+      <c r="F11">
+        <v>-0.01040286739633795</v>
+      </c>
+      <c r="G11">
+        <v>0.003766164996039154</v>
+      </c>
+      <c r="H11">
+        <v>-0.04959944827269778</v>
+      </c>
+      <c r="I11">
+        <v>0.02979852065119637</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02523235409159044</v>
+        <v>0.01191538400540997</v>
       </c>
       <c r="C12">
-        <v>-0.04064747427228587</v>
+        <v>-0.04963471010313011</v>
       </c>
       <c r="D12">
-        <v>-0.06600915756262447</v>
+        <v>0.0499464236789055</v>
       </c>
       <c r="E12">
-        <v>-0.004442178266685265</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01474996340771877</v>
+      </c>
+      <c r="F12">
+        <v>-0.01460018518662453</v>
+      </c>
+      <c r="G12">
+        <v>0.01915469814262723</v>
+      </c>
+      <c r="H12">
+        <v>-0.07320927357992987</v>
+      </c>
+      <c r="I12">
+        <v>0.0156945721672242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.007613476098523461</v>
+        <v>0.004691646116269025</v>
       </c>
       <c r="C13">
-        <v>-0.0295291445532168</v>
+        <v>-0.04529414369711769</v>
       </c>
       <c r="D13">
-        <v>-0.1555467514926247</v>
+        <v>0.1516653882314604</v>
       </c>
       <c r="E13">
-        <v>0.03001670006296873</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.03293446981790079</v>
+      </c>
+      <c r="F13">
+        <v>0.03176032660195544</v>
+      </c>
+      <c r="G13">
+        <v>-0.03804108027174725</v>
+      </c>
+      <c r="H13">
+        <v>-0.06837735602699377</v>
+      </c>
+      <c r="I13">
+        <v>-0.08190379809754145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.003225324994548538</v>
+        <v>0.0009623132956581969</v>
       </c>
       <c r="C14">
-        <v>-0.02224948602030631</v>
+        <v>-0.02893833416409863</v>
       </c>
       <c r="D14">
-        <v>-0.1073809922427314</v>
+        <v>0.1036687323366258</v>
       </c>
       <c r="E14">
-        <v>0.01138084147726129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.02751554135071527</v>
+      </c>
+      <c r="F14">
+        <v>0.02393416044132645</v>
+      </c>
+      <c r="G14">
+        <v>-0.01784206267269984</v>
+      </c>
+      <c r="H14">
+        <v>-0.1172997695362608</v>
+      </c>
+      <c r="I14">
+        <v>-0.02119240996720488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.001121886425947666</v>
+        <v>-0.0007220178714555751</v>
       </c>
       <c r="C15">
-        <v>-0.01071184024670126</v>
+        <v>-0.01921336231373614</v>
       </c>
       <c r="D15">
-        <v>-0.02410011617764581</v>
+        <v>0.05105577465031066</v>
       </c>
       <c r="E15">
-        <v>-0.004716931286896788</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.005189827661371198</v>
+      </c>
+      <c r="F15">
+        <v>0.002120039387890136</v>
+      </c>
+      <c r="G15">
+        <v>-0.01984674446171025</v>
+      </c>
+      <c r="H15">
+        <v>-0.01569297896514898</v>
+      </c>
+      <c r="I15">
+        <v>0.02061570558662119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02250446068989119</v>
+        <v>0.0109657194168177</v>
       </c>
       <c r="C16">
-        <v>-0.03887411859482192</v>
+        <v>-0.04801733536234278</v>
       </c>
       <c r="D16">
-        <v>-0.06010038369181097</v>
+        <v>0.04744005689209196</v>
       </c>
       <c r="E16">
-        <v>-0.008583761329707328</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.01963968525917117</v>
+      </c>
+      <c r="F16">
+        <v>-0.006892647184480343</v>
+      </c>
+      <c r="G16">
+        <v>0.0140567505267736</v>
+      </c>
+      <c r="H16">
+        <v>-0.054377997359327</v>
+      </c>
+      <c r="I16">
+        <v>0.02567637663956489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.006840508744143169</v>
+        <v>-0.0003659424933474852</v>
       </c>
       <c r="C19">
-        <v>-0.02794400129146992</v>
+        <v>-0.02411963331113684</v>
       </c>
       <c r="D19">
-        <v>-0.1290679973724323</v>
+        <v>0.0824534413795202</v>
       </c>
       <c r="E19">
-        <v>0.05492768457640346</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.01974958508308425</v>
+      </c>
+      <c r="F19">
+        <v>0.008391450017981292</v>
+      </c>
+      <c r="G19">
+        <v>-0.0191098910614677</v>
+      </c>
+      <c r="H19">
+        <v>-0.07674021413765868</v>
+      </c>
+      <c r="I19">
+        <v>-0.03989480727582433</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.005759324275720052</v>
+        <v>0.004862677497646013</v>
       </c>
       <c r="C20">
-        <v>-0.02750429122530957</v>
+        <v>-0.03909120542984438</v>
       </c>
       <c r="D20">
-        <v>-0.09503772175240022</v>
+        <v>0.09971900379041002</v>
       </c>
       <c r="E20">
-        <v>0.03406867609964215</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.004739816650569919</v>
+      </c>
+      <c r="F20">
+        <v>0.0271610242022093</v>
+      </c>
+      <c r="G20">
+        <v>-0.005360447091551013</v>
+      </c>
+      <c r="H20">
+        <v>-0.0582505942230124</v>
+      </c>
+      <c r="I20">
+        <v>-0.004262351782888378</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.007717898752030015</v>
+        <v>0.002982552000407761</v>
       </c>
       <c r="C21">
-        <v>-0.0353294417950998</v>
+        <v>-0.04270977757041214</v>
       </c>
       <c r="D21">
-        <v>-0.1726740266941477</v>
+        <v>0.1398303070739153</v>
       </c>
       <c r="E21">
-        <v>0.07188975776914415</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.003740926420716274</v>
+      </c>
+      <c r="F21">
+        <v>0.07401355268943269</v>
+      </c>
+      <c r="G21">
+        <v>-0.02552516350805012</v>
+      </c>
+      <c r="H21">
+        <v>-0.1738478624189336</v>
+      </c>
+      <c r="I21">
+        <v>-0.1192633987703967</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.001944149367262665</v>
+        <v>-0.009751178358386264</v>
       </c>
       <c r="C22">
-        <v>-0.06136099583757466</v>
+        <v>-0.07947138463774904</v>
       </c>
       <c r="D22">
-        <v>-0.2009357677596701</v>
+        <v>0.2512427580175833</v>
       </c>
       <c r="E22">
-        <v>-0.05301567592351349</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.04202974659561194</v>
+      </c>
+      <c r="F22">
+        <v>0.0250188489360122</v>
+      </c>
+      <c r="G22">
+        <v>-0.3252326767357563</v>
+      </c>
+      <c r="H22">
+        <v>0.4183991625273887</v>
+      </c>
+      <c r="I22">
+        <v>0.1233717303767251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.002199558518678106</v>
+        <v>-0.009310392955316637</v>
       </c>
       <c r="C23">
-        <v>-0.06182588085517082</v>
+        <v>-0.08039197409148151</v>
       </c>
       <c r="D23">
-        <v>-0.2005130749401165</v>
+        <v>0.2518627135775915</v>
       </c>
       <c r="E23">
-        <v>-0.05284984403029745</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.03898313212819902</v>
+      </c>
+      <c r="F23">
+        <v>0.02431510098623453</v>
+      </c>
+      <c r="G23">
+        <v>-0.3239078695351463</v>
+      </c>
+      <c r="H23">
+        <v>0.4187470697444262</v>
+      </c>
+      <c r="I23">
+        <v>0.1251132505123213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02978430954786585</v>
+        <v>0.01127232832832037</v>
       </c>
       <c r="C24">
-        <v>-0.05587474298673866</v>
+        <v>-0.064684049395264</v>
       </c>
       <c r="D24">
-        <v>-0.07213214465098221</v>
+        <v>0.0556293350028568</v>
       </c>
       <c r="E24">
-        <v>-0.003232830004304943</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02273997972628116</v>
+      </c>
+      <c r="F24">
+        <v>-0.004316477420442868</v>
+      </c>
+      <c r="G24">
+        <v>0.005981313948708679</v>
+      </c>
+      <c r="H24">
+        <v>-0.0779130631235733</v>
+      </c>
+      <c r="I24">
+        <v>0.02548357266766443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.03215658156140257</v>
+        <v>0.01497815282260918</v>
       </c>
       <c r="C25">
-        <v>-0.04721799124920543</v>
+        <v>-0.06006705790929164</v>
       </c>
       <c r="D25">
-        <v>-0.06496912665192708</v>
+        <v>0.0522015550781173</v>
       </c>
       <c r="E25">
-        <v>0.002926572844071875</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.009282984993812478</v>
+      </c>
+      <c r="F25">
+        <v>-0.006543979778002459</v>
+      </c>
+      <c r="G25">
+        <v>0.01314745570175304</v>
+      </c>
+      <c r="H25">
+        <v>-0.04628294497846518</v>
+      </c>
+      <c r="I25">
+        <v>0.01710157427518549</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.008403122231719844</v>
+        <v>0.00871115773828378</v>
       </c>
       <c r="C26">
-        <v>-0.01676836843746709</v>
+        <v>-0.02597366535542552</v>
       </c>
       <c r="D26">
-        <v>-0.08313248597233747</v>
+        <v>0.07084704960120186</v>
       </c>
       <c r="E26">
-        <v>0.01724963532013485</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.02176350895563131</v>
+      </c>
+      <c r="F26">
+        <v>0.0233194599971521</v>
+      </c>
+      <c r="G26">
+        <v>-0.001390601063169823</v>
+      </c>
+      <c r="H26">
+        <v>-0.08063485249400376</v>
+      </c>
+      <c r="I26">
+        <v>-0.05297761564167084</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2315381943198717</v>
+        <v>0.3170023503991491</v>
       </c>
       <c r="C28">
-        <v>0.2278114650479367</v>
+        <v>0.1188081642928768</v>
       </c>
       <c r="D28">
-        <v>-0.02549427079023589</v>
+        <v>-0.00838148957404063</v>
       </c>
       <c r="E28">
-        <v>0.07232263705054273</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.04927415544322612</v>
+      </c>
+      <c r="F28">
+        <v>0.03914914936281422</v>
+      </c>
+      <c r="G28">
+        <v>-0.01912535496852536</v>
+      </c>
+      <c r="H28">
+        <v>0.03005524270998801</v>
+      </c>
+      <c r="I28">
+        <v>-0.1376861939673191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.0007132746968435147</v>
+        <v>0.0005562744211965124</v>
       </c>
       <c r="C29">
-        <v>-0.02313253168065666</v>
+        <v>-0.03095871979272726</v>
       </c>
       <c r="D29">
-        <v>-0.1028351920266601</v>
+        <v>0.09822871484859413</v>
       </c>
       <c r="E29">
-        <v>0.009118352666374287</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.03864014821129392</v>
+      </c>
+      <c r="F29">
+        <v>0.02951255949241992</v>
+      </c>
+      <c r="G29">
+        <v>-0.00561468447001985</v>
+      </c>
+      <c r="H29">
+        <v>-0.1195046931319266</v>
+      </c>
+      <c r="I29">
+        <v>-0.02420711417193934</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02799210270686808</v>
+        <v>0.01856745103559143</v>
       </c>
       <c r="C30">
-        <v>-0.0602536799594114</v>
+        <v>-0.08363421091553856</v>
       </c>
       <c r="D30">
-        <v>-0.1671745721656244</v>
+        <v>0.1631789207817288</v>
       </c>
       <c r="E30">
-        <v>0.01134082101476514</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.04113576786527746</v>
+      </c>
+      <c r="F30">
+        <v>0.03262884767257475</v>
+      </c>
+      <c r="G30">
+        <v>-0.0289166924453394</v>
+      </c>
+      <c r="H30">
+        <v>-0.04171648694805622</v>
+      </c>
+      <c r="I30">
+        <v>0.06148526421719391</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04701868317524747</v>
+        <v>0.01207906310226269</v>
       </c>
       <c r="C31">
-        <v>-0.08453880106533819</v>
+        <v>-0.09269104089727045</v>
       </c>
       <c r="D31">
-        <v>-0.07479950481793959</v>
+        <v>0.04480816240618871</v>
       </c>
       <c r="E31">
-        <v>0.01569156154566164</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.007474769203362842</v>
+      </c>
+      <c r="F31">
+        <v>0.01498974550981111</v>
+      </c>
+      <c r="G31">
+        <v>-0.007608923427410072</v>
+      </c>
+      <c r="H31">
+        <v>-0.04705591552776671</v>
+      </c>
+      <c r="I31">
+        <v>-0.07741652587044891</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.02057287305776103</v>
+        <v>0.01097732163157924</v>
       </c>
       <c r="C32">
-        <v>-0.03743511027065537</v>
+        <v>-0.04539327024142389</v>
       </c>
       <c r="D32">
-        <v>-0.1067536920832758</v>
+        <v>0.1111075983528113</v>
       </c>
       <c r="E32">
-        <v>0.06669639759576841</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.008612205935881483</v>
+      </c>
+      <c r="F32">
+        <v>0.04393878808953234</v>
+      </c>
+      <c r="G32">
+        <v>-0.03101645633824701</v>
+      </c>
+      <c r="H32">
+        <v>-0.02904662094800474</v>
+      </c>
+      <c r="I32">
+        <v>-0.0748726610666357</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01630851852134501</v>
+        <v>0.008222999680562308</v>
       </c>
       <c r="C33">
-        <v>-0.04385790515569747</v>
+        <v>-0.05705321613715619</v>
       </c>
       <c r="D33">
-        <v>-0.1521532075486932</v>
+        <v>0.1307288621886022</v>
       </c>
       <c r="E33">
-        <v>0.04535461756299104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.01044576611894203</v>
+      </c>
+      <c r="F33">
+        <v>0.02820258367195791</v>
+      </c>
+      <c r="G33">
+        <v>-0.01600343593471233</v>
+      </c>
+      <c r="H33">
+        <v>-0.0705531982216555</v>
+      </c>
+      <c r="I33">
+        <v>-0.0210881401340903</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02734325268029791</v>
+        <v>0.00837834862860249</v>
       </c>
       <c r="C34">
-        <v>-0.0567817823077888</v>
+        <v>-0.06136876808810906</v>
       </c>
       <c r="D34">
-        <v>-0.05038323616297574</v>
+        <v>0.03276799789903213</v>
       </c>
       <c r="E34">
-        <v>-0.04408092489155647</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02777212485557229</v>
+      </c>
+      <c r="F34">
+        <v>-0.03392223415319792</v>
+      </c>
+      <c r="G34">
+        <v>0.007496632067367033</v>
+      </c>
+      <c r="H34">
+        <v>-0.0610409180080082</v>
+      </c>
+      <c r="I34">
+        <v>0.004183333448783638</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001382115342894689</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.004587246947561819</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.01477095137474056</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.003311614471785982</v>
+      </c>
+      <c r="F35">
+        <v>0.001419070763367966</v>
+      </c>
+      <c r="G35">
+        <v>0.002444194427482815</v>
+      </c>
+      <c r="H35">
+        <v>-0.0115124692726296</v>
+      </c>
+      <c r="I35">
+        <v>0.004929753638878613</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.007895801837967613</v>
+        <v>0.00891794699915326</v>
       </c>
       <c r="C36">
-        <v>-0.007936689151425378</v>
+        <v>-0.01998225721751259</v>
       </c>
       <c r="D36">
-        <v>-0.09666222501433755</v>
+        <v>0.08043506475028803</v>
       </c>
       <c r="E36">
-        <v>0.04030729426820918</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.005022308565806872</v>
+      </c>
+      <c r="F36">
+        <v>0.03579816925999316</v>
+      </c>
+      <c r="G36">
+        <v>-0.005477947025307333</v>
+      </c>
+      <c r="H36">
+        <v>-0.06091055743086417</v>
+      </c>
+      <c r="I36">
+        <v>-0.03451153544260577</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.007842551519730913</v>
+        <v>0.01489718008901834</v>
       </c>
       <c r="C38">
-        <v>-0.008996362861305963</v>
+        <v>-0.01565988169510431</v>
       </c>
       <c r="D38">
-        <v>-0.08790750062030006</v>
+        <v>0.08395010003391568</v>
       </c>
       <c r="E38">
-        <v>0.01959984654917227</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.01336445767320358</v>
+      </c>
+      <c r="F38">
+        <v>-0.007622692204139845</v>
+      </c>
+      <c r="G38">
+        <v>-0.02675439179056785</v>
+      </c>
+      <c r="H38">
+        <v>-0.0500067095348963</v>
+      </c>
+      <c r="I38">
+        <v>-0.03565873356081214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.02244490144908873</v>
+        <v>0.007171515200428007</v>
       </c>
       <c r="C39">
-        <v>-0.05787286967866576</v>
+        <v>-0.07519132073320341</v>
       </c>
       <c r="D39">
-        <v>-0.118313579911015</v>
+        <v>0.1084674642265048</v>
       </c>
       <c r="E39">
-        <v>-0.0211344235562313</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.04681038183997868</v>
+      </c>
+      <c r="F39">
+        <v>-0.004409571247505988</v>
+      </c>
+      <c r="G39">
+        <v>0.007268729183761838</v>
+      </c>
+      <c r="H39">
+        <v>-0.1036870713539513</v>
+      </c>
+      <c r="I39">
+        <v>0.05850677267480881</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01305738760998396</v>
+        <v>0.01269902942577418</v>
       </c>
       <c r="C40">
-        <v>-0.01833946274988593</v>
+        <v>-0.02626357635253472</v>
       </c>
       <c r="D40">
-        <v>-0.1139435679354928</v>
+        <v>0.09582854072232422</v>
       </c>
       <c r="E40">
-        <v>-0.01993696674915698</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.038689660768081</v>
+      </c>
+      <c r="F40">
+        <v>-0.02582440910945874</v>
+      </c>
+      <c r="G40">
+        <v>-0.07484934046286501</v>
+      </c>
+      <c r="H40">
+        <v>-0.07220347275082389</v>
+      </c>
+      <c r="I40">
+        <v>-0.06132595473559093</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01198873671777684</v>
+        <v>0.01105005318947504</v>
       </c>
       <c r="C41">
-        <v>-0.01045271581713932</v>
+        <v>-0.01773029615247479</v>
       </c>
       <c r="D41">
-        <v>-0.06547969456669236</v>
+        <v>0.04676842416481413</v>
       </c>
       <c r="E41">
-        <v>0.04466294273569113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.02509053307834433</v>
+      </c>
+      <c r="F41">
+        <v>0.02004373316038891</v>
+      </c>
+      <c r="G41">
+        <v>-0.02236839515241879</v>
+      </c>
+      <c r="H41">
+        <v>-0.05057591149426651</v>
+      </c>
+      <c r="I41">
+        <v>-0.05234847104338997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.007114685027332361</v>
+        <v>0.005361595148466282</v>
       </c>
       <c r="C43">
-        <v>-0.01388513899491437</v>
+        <v>-0.01861429240002678</v>
       </c>
       <c r="D43">
-        <v>-0.07970023092408396</v>
+        <v>0.05870563362689187</v>
       </c>
       <c r="E43">
-        <v>0.03690357772883891</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.009942182134993392</v>
+      </c>
+      <c r="F43">
+        <v>0.01877330759022694</v>
+      </c>
+      <c r="G43">
+        <v>-0.02532046397358883</v>
+      </c>
+      <c r="H43">
+        <v>-0.076762241680868</v>
+      </c>
+      <c r="I43">
+        <v>-0.04575363123661097</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01911253565802954</v>
+        <v>0.0125923556211456</v>
       </c>
       <c r="C44">
-        <v>-0.02866886706472671</v>
+        <v>-0.04724965206974249</v>
       </c>
       <c r="D44">
-        <v>-0.1143970907278858</v>
+        <v>0.1179897842599782</v>
       </c>
       <c r="E44">
-        <v>0.03853582910449455</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01916940425684553</v>
+      </c>
+      <c r="F44">
+        <v>0.02258109550605679</v>
+      </c>
+      <c r="G44">
+        <v>-0.02219155624161656</v>
+      </c>
+      <c r="H44">
+        <v>-0.04272445760647806</v>
+      </c>
+      <c r="I44">
+        <v>0.05882765101845567</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.009341945389623019</v>
+        <v>-0.0010985870416921</v>
       </c>
       <c r="C46">
-        <v>-0.03227775227308768</v>
+        <v>-0.04177750452989859</v>
       </c>
       <c r="D46">
-        <v>-0.1013961375934012</v>
+        <v>0.08607814127853872</v>
       </c>
       <c r="E46">
-        <v>0.0246510400172573</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.02115858559717173</v>
+      </c>
+      <c r="F46">
+        <v>0.02838405011229793</v>
+      </c>
+      <c r="G46">
+        <v>-0.02224703677731829</v>
+      </c>
+      <c r="H46">
+        <v>-0.1315199874102061</v>
+      </c>
+      <c r="I46">
+        <v>-0.03012388528273948</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.09035471436614752</v>
+        <v>0.03964013374375972</v>
       </c>
       <c r="C47">
-        <v>-0.1013229313831977</v>
+        <v>-0.122535751320203</v>
       </c>
       <c r="D47">
-        <v>-0.06063207801220855</v>
+        <v>0.0250184718513662</v>
       </c>
       <c r="E47">
-        <v>0.03498139698835415</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01978782957921563</v>
+      </c>
+      <c r="F47">
+        <v>-0.01124579207722401</v>
+      </c>
+      <c r="G47">
+        <v>0.0436450402219732</v>
+      </c>
+      <c r="H47">
+        <v>-0.04270836404645097</v>
+      </c>
+      <c r="I47">
+        <v>-0.1356463483104591</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.00620527390662864</v>
+        <v>0.007078263739259062</v>
       </c>
       <c r="C48">
-        <v>-0.01879716696625146</v>
+        <v>-0.02825352181343844</v>
       </c>
       <c r="D48">
-        <v>-0.09621632159749863</v>
+        <v>0.08289639172085152</v>
       </c>
       <c r="E48">
-        <v>0.06192900293549305</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.008318343428669649</v>
+      </c>
+      <c r="F48">
+        <v>0.03956558547699725</v>
+      </c>
+      <c r="G48">
+        <v>-0.01306729103995398</v>
+      </c>
+      <c r="H48">
+        <v>-0.08729607640956853</v>
+      </c>
+      <c r="I48">
+        <v>-0.02712178320467836</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.04325688386626592</v>
+        <v>0.01396664231471579</v>
       </c>
       <c r="C50">
-        <v>-0.06181281455387889</v>
+        <v>-0.0749499167795451</v>
       </c>
       <c r="D50">
-        <v>-0.07405688302899864</v>
+        <v>0.05024883607859613</v>
       </c>
       <c r="E50">
-        <v>0.01459913774868511</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.0004063932657685853</v>
+      </c>
+      <c r="F50">
+        <v>0.009758659686697049</v>
+      </c>
+      <c r="G50">
+        <v>-0.0272806868439814</v>
+      </c>
+      <c r="H50">
+        <v>-0.03807196140121479</v>
+      </c>
+      <c r="I50">
+        <v>-0.1290226941741444</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.004667218038364488</v>
+        <v>0.00371022611825309</v>
       </c>
       <c r="C51">
-        <v>-0.005704036387980185</v>
+        <v>-0.01760888456747556</v>
       </c>
       <c r="D51">
-        <v>-0.06546649153058244</v>
+        <v>0.07034682668164828</v>
       </c>
       <c r="E51">
-        <v>-0.004805538170542164</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03691478978702389</v>
+      </c>
+      <c r="F51">
+        <v>0.03541369652552701</v>
+      </c>
+      <c r="G51">
+        <v>-0.03759237942361071</v>
+      </c>
+      <c r="H51">
+        <v>-0.04323251115571505</v>
+      </c>
+      <c r="I51">
+        <v>-0.00480824743398747</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1170967984856513</v>
+        <v>0.0634919686321825</v>
       </c>
       <c r="C53">
-        <v>-0.1146746619099726</v>
+        <v>-0.1549592412318523</v>
       </c>
       <c r="D53">
-        <v>-0.02134099189341692</v>
+        <v>-0.01224145162973704</v>
       </c>
       <c r="E53">
-        <v>0.06113362212768697</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03494213609611041</v>
+      </c>
+      <c r="F53">
+        <v>0.04959711404756689</v>
+      </c>
+      <c r="G53">
+        <v>-0.009660347722671997</v>
+      </c>
+      <c r="H53">
+        <v>-0.0008036289553714425</v>
+      </c>
+      <c r="I53">
+        <v>-0.08737089560729652</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01727384817319215</v>
+        <v>0.01087068652727654</v>
       </c>
       <c r="C54">
-        <v>-0.0249040968000859</v>
+        <v>-0.04058364553595923</v>
       </c>
       <c r="D54">
-        <v>-0.1092084330948604</v>
+        <v>0.08576506247543908</v>
       </c>
       <c r="E54">
-        <v>0.007567226177533112</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.009390110130361454</v>
+      </c>
+      <c r="F54">
+        <v>-0.001664067937617823</v>
+      </c>
+      <c r="G54">
+        <v>-0.02792769983148391</v>
+      </c>
+      <c r="H54">
+        <v>-0.09238081444022583</v>
+      </c>
+      <c r="I54">
+        <v>-0.05712790610014726</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1023462008423294</v>
+        <v>0.05009775270926613</v>
       </c>
       <c r="C55">
-        <v>-0.09647636491666203</v>
+        <v>-0.1259203664366714</v>
       </c>
       <c r="D55">
-        <v>-0.00752941661185258</v>
+        <v>-0.02540309835592651</v>
       </c>
       <c r="E55">
-        <v>0.01751829973644482</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.0002253434431786748</v>
+      </c>
+      <c r="F55">
+        <v>0.01772130331595321</v>
+      </c>
+      <c r="G55">
+        <v>-0.01733660024930409</v>
+      </c>
+      <c r="H55">
+        <v>-0.008617303690305759</v>
+      </c>
+      <c r="I55">
+        <v>-0.08992455088329836</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1433327929089391</v>
+        <v>0.07020243271529827</v>
       </c>
       <c r="C56">
-        <v>-0.1270261370330802</v>
+        <v>-0.1822392732908564</v>
       </c>
       <c r="D56">
-        <v>-0.005570458144963216</v>
+        <v>-0.02355232333767471</v>
       </c>
       <c r="E56">
-        <v>0.02761121275314862</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.0311134339279991</v>
+      </c>
+      <c r="F56">
+        <v>0.01601221909140828</v>
+      </c>
+      <c r="G56">
+        <v>-0.05821734753111769</v>
+      </c>
+      <c r="H56">
+        <v>0.009300860123377355</v>
+      </c>
+      <c r="I56">
+        <v>-0.1093490787024268</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.001976558973045324</v>
+        <v>0.007892907379980189</v>
       </c>
       <c r="C58">
-        <v>-0.01739325818687272</v>
+        <v>-0.04906060974310763</v>
       </c>
       <c r="D58">
-        <v>-0.226340569845429</v>
+        <v>0.2843133801811072</v>
       </c>
       <c r="E58">
-        <v>0.07172658513973494</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.02547898511465136</v>
+      </c>
+      <c r="F58">
+        <v>0.08763893907533485</v>
+      </c>
+      <c r="G58">
+        <v>-0.1197083625126879</v>
+      </c>
+      <c r="H58">
+        <v>0.109141666722152</v>
+      </c>
+      <c r="I58">
+        <v>0.07111301148496048</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1612018514595516</v>
+        <v>0.2436940627565277</v>
       </c>
       <c r="C59">
-        <v>0.1666663163888915</v>
+        <v>0.08428599267621711</v>
       </c>
       <c r="D59">
-        <v>-0.05340156374986504</v>
+        <v>0.06011715173100379</v>
       </c>
       <c r="E59">
-        <v>0.03774326254594961</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.02882449297581834</v>
+      </c>
+      <c r="F59">
+        <v>0.01322716227039789</v>
+      </c>
+      <c r="G59">
+        <v>0.006198075389779762</v>
+      </c>
+      <c r="H59">
+        <v>0.02167226796294391</v>
+      </c>
+      <c r="I59">
+        <v>-0.0277335237198881</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.2020595226884444</v>
+        <v>0.1564300361091708</v>
       </c>
       <c r="C60">
-        <v>-0.08889185294701661</v>
+        <v>-0.1685719914116784</v>
       </c>
       <c r="D60">
-        <v>-0.1592391566223169</v>
+        <v>0.08666943379938587</v>
       </c>
       <c r="E60">
-        <v>-0.2392941631744772</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.231754530621643</v>
+      </c>
+      <c r="F60">
+        <v>-0.1647746945488288</v>
+      </c>
+      <c r="G60">
+        <v>0.2325597977672192</v>
+      </c>
+      <c r="H60">
+        <v>0.1770143696144183</v>
+      </c>
+      <c r="I60">
+        <v>0.04449158296539844</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03338155440151867</v>
+        <v>0.015020547655541</v>
       </c>
       <c r="C61">
-        <v>-0.05363801619609712</v>
+        <v>-0.07103035773873467</v>
       </c>
       <c r="D61">
-        <v>-0.1109000855453753</v>
+        <v>0.08664057652006947</v>
       </c>
       <c r="E61">
-        <v>-0.001889359962690793</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03470414685854816</v>
+      </c>
+      <c r="F61">
+        <v>-0.01275995222015514</v>
+      </c>
+      <c r="G61">
+        <v>0.02328086881917178</v>
+      </c>
+      <c r="H61">
+        <v>-0.09749814883196276</v>
+      </c>
+      <c r="I61">
+        <v>0.01408394181264308</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.01054877598819173</v>
+        <v>0.003867106673720267</v>
       </c>
       <c r="C63">
-        <v>-0.026327610725307</v>
+        <v>-0.03587228338630944</v>
       </c>
       <c r="D63">
-        <v>-0.09548540079555758</v>
+        <v>0.07230666946414102</v>
       </c>
       <c r="E63">
-        <v>0.01228125277204493</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.02521547040180251</v>
+      </c>
+      <c r="F63">
+        <v>0.02320332605027986</v>
+      </c>
+      <c r="G63">
+        <v>-0.01456659209334145</v>
+      </c>
+      <c r="H63">
+        <v>-0.06260853361773676</v>
+      </c>
+      <c r="I63">
+        <v>-0.008046226848229421</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.06478835149582443</v>
+        <v>0.02403406007101596</v>
       </c>
       <c r="C64">
-        <v>-0.08150932251633422</v>
+        <v>-0.1046027113727745</v>
       </c>
       <c r="D64">
-        <v>-0.04432348557034797</v>
+        <v>0.03099473979687883</v>
       </c>
       <c r="E64">
-        <v>0.02047368068038466</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.0270478011596457</v>
+      </c>
+      <c r="F64">
+        <v>0.02495430479282194</v>
+      </c>
+      <c r="G64">
+        <v>0.04221896658619856</v>
+      </c>
+      <c r="H64">
+        <v>-0.1194371105301521</v>
+      </c>
+      <c r="I64">
+        <v>0.05577778543929712</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02741840196173809</v>
+        <v>0.02454478087333378</v>
       </c>
       <c r="C65">
-        <v>-0.0166170076302788</v>
+        <v>-0.03876553341622577</v>
       </c>
       <c r="D65">
-        <v>-0.1203612213766835</v>
+        <v>0.119210406602461</v>
       </c>
       <c r="E65">
-        <v>-0.0002974655601067392</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.04482381527781589</v>
+      </c>
+      <c r="F65">
+        <v>0.005507636863004392</v>
+      </c>
+      <c r="G65">
+        <v>0.01646792463068334</v>
+      </c>
+      <c r="H65">
+        <v>-0.04308270114284909</v>
+      </c>
+      <c r="I65">
+        <v>-0.006059666152690678</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02618093194407918</v>
+        <v>0.005699794943237813</v>
       </c>
       <c r="C66">
-        <v>-0.06449822809758768</v>
+        <v>-0.08997515555174507</v>
       </c>
       <c r="D66">
-        <v>-0.1222375875851141</v>
+        <v>0.1312712489497047</v>
       </c>
       <c r="E66">
-        <v>-0.02301586284488482</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.03322466678845871</v>
+      </c>
+      <c r="F66">
+        <v>-0.01364865412740896</v>
+      </c>
+      <c r="G66">
+        <v>-0.004893209711615804</v>
+      </c>
+      <c r="H66">
+        <v>-0.05815819643965238</v>
+      </c>
+      <c r="I66">
+        <v>0.06572691939842193</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.0284845742101725</v>
+        <v>0.0256857537641103</v>
       </c>
       <c r="C67">
-        <v>-0.01917321224530751</v>
+        <v>-0.0279775090111214</v>
       </c>
       <c r="D67">
-        <v>-0.04278319620100899</v>
+        <v>0.03365263949950453</v>
       </c>
       <c r="E67">
-        <v>-0.004871304613194612</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.001746986860639626</v>
+      </c>
+      <c r="F67">
+        <v>-0.0294443024666461</v>
+      </c>
+      <c r="G67">
+        <v>-0.01481145013961709</v>
+      </c>
+      <c r="H67">
+        <v>-0.06193333807666927</v>
+      </c>
+      <c r="I67">
+        <v>-0.02686535683093546</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.1864587955996301</v>
+        <v>0.2626471515268026</v>
       </c>
       <c r="C68">
-        <v>0.1784030050780169</v>
+        <v>0.08311848049373953</v>
       </c>
       <c r="D68">
-        <v>-0.03288857269736119</v>
+        <v>0.03502489147623584</v>
       </c>
       <c r="E68">
-        <v>0.006838025878131492</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.007782361098417167</v>
+      </c>
+      <c r="F68">
+        <v>0.02885359754653521</v>
+      </c>
+      <c r="G68">
+        <v>-0.05668413612570694</v>
+      </c>
+      <c r="H68">
+        <v>0.05056578478481013</v>
+      </c>
+      <c r="I68">
+        <v>-0.09766842764857375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06822183928973437</v>
+        <v>0.02472745038392987</v>
       </c>
       <c r="C69">
-        <v>-0.1133516502960118</v>
+        <v>-0.120248057298212</v>
       </c>
       <c r="D69">
-        <v>-0.08364416405504668</v>
+        <v>0.03854262854788829</v>
       </c>
       <c r="E69">
-        <v>0.01419245953456007</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.001396440684179457</v>
+      </c>
+      <c r="F69">
+        <v>-0.01246865604491427</v>
+      </c>
+      <c r="G69">
+        <v>0.02814778565570666</v>
+      </c>
+      <c r="H69">
+        <v>-0.04392653256022716</v>
+      </c>
+      <c r="I69">
+        <v>-0.09595980871965051</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.1937624131405704</v>
+        <v>0.2655371490007796</v>
       </c>
       <c r="C71">
-        <v>0.1967174304565395</v>
+        <v>0.09759838071401243</v>
       </c>
       <c r="D71">
-        <v>-0.03169817459738487</v>
+        <v>0.02190143089949109</v>
       </c>
       <c r="E71">
-        <v>0.01684798219362503</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.008917676911349764</v>
+      </c>
+      <c r="F71">
+        <v>0.01791879263570411</v>
+      </c>
+      <c r="G71">
+        <v>-0.04098499027430632</v>
+      </c>
+      <c r="H71">
+        <v>-0.008662969090810357</v>
+      </c>
+      <c r="I71">
+        <v>-0.1640230974163897</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1136218780556256</v>
+        <v>0.06552367326710536</v>
       </c>
       <c r="C72">
-        <v>-0.06838183615923257</v>
+        <v>-0.1217437813744253</v>
       </c>
       <c r="D72">
-        <v>-0.09670924092497274</v>
+        <v>0.06318401006137785</v>
       </c>
       <c r="E72">
-        <v>-0.05802455914604954</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.09077530519560385</v>
+      </c>
+      <c r="F72">
+        <v>-0.01675310240593197</v>
+      </c>
+      <c r="G72">
+        <v>0.02789107977909951</v>
+      </c>
+      <c r="H72">
+        <v>-0.06534472528093759</v>
+      </c>
+      <c r="I72">
+        <v>0.03717907462951009</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1837691296843846</v>
+        <v>0.1438755759353814</v>
       </c>
       <c r="C73">
-        <v>-0.04688665408048583</v>
+        <v>-0.1340972844120755</v>
       </c>
       <c r="D73">
-        <v>-0.2139942228846343</v>
+        <v>0.09280002320923779</v>
       </c>
       <c r="E73">
-        <v>-0.3741278365713636</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.3877400114281022</v>
+      </c>
+      <c r="F73">
+        <v>-0.2500972459341972</v>
+      </c>
+      <c r="G73">
+        <v>0.4381857873612165</v>
+      </c>
+      <c r="H73">
+        <v>0.1402753036603596</v>
+      </c>
+      <c r="I73">
+        <v>0.06838353947463335</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1151554515531177</v>
+        <v>0.05772962743481894</v>
       </c>
       <c r="C74">
-        <v>-0.104491903188246</v>
+        <v>-0.141435030942203</v>
       </c>
       <c r="D74">
-        <v>0.02045312845873698</v>
+        <v>-0.04079024400389822</v>
       </c>
       <c r="E74">
-        <v>0.04776232752480643</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01335467050229458</v>
+      </c>
+      <c r="F74">
+        <v>0.04740909612140274</v>
+      </c>
+      <c r="G74">
+        <v>-0.005639337820224789</v>
+      </c>
+      <c r="H74">
+        <v>0.008587947449004506</v>
+      </c>
+      <c r="I74">
+        <v>-0.1134499000088208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2511838258124408</v>
+        <v>0.131548279273969</v>
       </c>
       <c r="C75">
-        <v>-0.1765614819410449</v>
+        <v>-0.2630215630309934</v>
       </c>
       <c r="D75">
-        <v>0.1037308960769206</v>
+        <v>-0.1359506810906992</v>
       </c>
       <c r="E75">
-        <v>0.01908076492838757</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.0867064876415953</v>
+      </c>
+      <c r="F75">
+        <v>-0.03408436288992599</v>
+      </c>
+      <c r="G75">
+        <v>-0.100135786777462</v>
+      </c>
+      <c r="H75">
+        <v>0.01056459284154693</v>
+      </c>
+      <c r="I75">
+        <v>-0.09099684760518732</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1534324598563122</v>
+        <v>0.07381238320796507</v>
       </c>
       <c r="C76">
-        <v>-0.1274110072280465</v>
+        <v>-0.1811657415780153</v>
       </c>
       <c r="D76">
-        <v>-0.01815688234607309</v>
+        <v>-0.03025955784105112</v>
       </c>
       <c r="E76">
-        <v>0.02928348007698272</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02857853636533323</v>
+      </c>
+      <c r="F76">
+        <v>0.00743596476603878</v>
+      </c>
+      <c r="G76">
+        <v>-0.05341332527915918</v>
+      </c>
+      <c r="H76">
+        <v>-0.03281194965208682</v>
+      </c>
+      <c r="I76">
+        <v>-0.1148272143217994</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02490296064196974</v>
+        <v>0.03140427888129183</v>
       </c>
       <c r="C77">
-        <v>-0.08219008835304208</v>
+        <v>-0.09342645460488519</v>
       </c>
       <c r="D77">
-        <v>-0.07743080669621634</v>
+        <v>0.2496673731592112</v>
       </c>
       <c r="E77">
-        <v>0.3146126647345976</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.760791227353668</v>
+      </c>
+      <c r="F77">
+        <v>-0.3319048121550492</v>
+      </c>
+      <c r="G77">
+        <v>0.3176056342487916</v>
+      </c>
+      <c r="H77">
+        <v>0.2349423139246599</v>
+      </c>
+      <c r="I77">
+        <v>-0.04291108068433468</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.03128493486631684</v>
+        <v>0.01814323630770984</v>
       </c>
       <c r="C78">
-        <v>-0.067715716596327</v>
+        <v>-0.08718580785086824</v>
       </c>
       <c r="D78">
-        <v>-0.1541385373568935</v>
+        <v>0.1405757125992084</v>
       </c>
       <c r="E78">
-        <v>0.02645716867026416</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.04344897187269888</v>
+      </c>
+      <c r="F78">
+        <v>0.04481915415445792</v>
+      </c>
+      <c r="G78">
+        <v>-0.0400318013238826</v>
+      </c>
+      <c r="H78">
+        <v>-0.02113764579278314</v>
+      </c>
+      <c r="I78">
+        <v>-0.02019401713164084</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.09582221699126062</v>
+        <v>0.04212831295129393</v>
       </c>
       <c r="C79">
-        <v>-0.1471514979984203</v>
+        <v>-0.1771925869055102</v>
       </c>
       <c r="D79">
-        <v>0.09043839809311333</v>
+        <v>-0.06537521560408437</v>
       </c>
       <c r="E79">
-        <v>0.6643758551610838</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.1102062261460939</v>
+      </c>
+      <c r="F79">
+        <v>0.8049837919048847</v>
+      </c>
+      <c r="G79">
+        <v>0.4016037374758821</v>
+      </c>
+      <c r="H79">
+        <v>0.2075059652007661</v>
+      </c>
+      <c r="I79">
+        <v>0.1562917566669245</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.007857501469857271</v>
+        <v>-0.0003109176350132391</v>
       </c>
       <c r="C80">
-        <v>-0.04904310073699093</v>
+        <v>-0.04848900149106492</v>
       </c>
       <c r="D80">
-        <v>-0.04672282039216758</v>
+        <v>0.0449424582193941</v>
       </c>
       <c r="E80">
-        <v>-0.003883119234926402</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.02015493032986853</v>
+      </c>
+      <c r="F80">
+        <v>0.008866681188202169</v>
+      </c>
+      <c r="G80">
+        <v>-0.04054044802892463</v>
+      </c>
+      <c r="H80">
+        <v>-0.01836440259732528</v>
+      </c>
+      <c r="I80">
+        <v>-0.05484917564909904</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1329611794967014</v>
+        <v>0.05793552382303065</v>
       </c>
       <c r="C81">
-        <v>-0.1210537399013273</v>
+        <v>-0.1641973521348618</v>
       </c>
       <c r="D81">
-        <v>0.06231868366494807</v>
+        <v>-0.07806000429743297</v>
       </c>
       <c r="E81">
-        <v>0.0858009869280125</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.06960146228594892</v>
+      </c>
+      <c r="F81">
+        <v>0.0447656950171698</v>
+      </c>
+      <c r="G81">
+        <v>-0.04985068545246669</v>
+      </c>
+      <c r="H81">
+        <v>-0.05883900884283591</v>
+      </c>
+      <c r="I81">
+        <v>-0.1292170605699747</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2786487355660274</v>
+        <v>0.1186662721919214</v>
       </c>
       <c r="C82">
-        <v>-0.2702635170797448</v>
+        <v>-0.3248089046847557</v>
       </c>
       <c r="D82">
-        <v>0.2097343536244063</v>
+        <v>-0.2299765223199794</v>
       </c>
       <c r="E82">
-        <v>-0.0820405890850288</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.04225676895822521</v>
+      </c>
+      <c r="F82">
+        <v>-0.1221290296963003</v>
+      </c>
+      <c r="G82">
+        <v>-0.07389709992189662</v>
+      </c>
+      <c r="H82">
+        <v>-0.0902923426002621</v>
+      </c>
+      <c r="I82">
+        <v>-0.05609706234447692</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.003622935501841488</v>
+        <v>-0.009050070812953203</v>
       </c>
       <c r="C83">
-        <v>-0.05611471509695968</v>
+        <v>-0.03537026380238625</v>
       </c>
       <c r="D83">
-        <v>-0.02523038435657936</v>
+        <v>0.04477376810986541</v>
       </c>
       <c r="E83">
-        <v>0.07131417988695608</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.09434389935645333</v>
+      </c>
+      <c r="F83">
+        <v>0.02926375666694117</v>
+      </c>
+      <c r="G83">
+        <v>-0.05270372464017103</v>
+      </c>
+      <c r="H83">
+        <v>-0.05053827109591308</v>
+      </c>
+      <c r="I83">
+        <v>-0.08173684231250126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.0001952317799693849</v>
+        <v>-0.001287527181357446</v>
       </c>
       <c r="C84">
-        <v>-0.0002195704888600172</v>
+        <v>-0.01553141048413822</v>
       </c>
       <c r="D84">
-        <v>-0.0008150322657635355</v>
+        <v>0.03852094644390787</v>
       </c>
       <c r="E84">
-        <v>0.0007609045812906702</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.00879855060543565</v>
+      </c>
+      <c r="F84">
+        <v>0.01352206416264555</v>
+      </c>
+      <c r="G84">
+        <v>-0.0438820572044324</v>
+      </c>
+      <c r="H84">
+        <v>0.009271411758267538</v>
+      </c>
+      <c r="I84">
+        <v>0.0332697727841438</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1556316754318545</v>
+        <v>0.07156657263130009</v>
       </c>
       <c r="C85">
-        <v>-0.1276572039307786</v>
+        <v>-0.1843267172356184</v>
       </c>
       <c r="D85">
-        <v>0.04728606759534407</v>
+        <v>-0.09235172409068153</v>
       </c>
       <c r="E85">
-        <v>0.01495487988532826</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.004986232157427951</v>
+      </c>
+      <c r="F85">
+        <v>0.07752410196022823</v>
+      </c>
+      <c r="G85">
+        <v>-0.03682794413582944</v>
+      </c>
+      <c r="H85">
+        <v>-0.007706425420825085</v>
+      </c>
+      <c r="I85">
+        <v>-0.09352703653710825</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01315656142246186</v>
+        <v>0.01143503974927039</v>
       </c>
       <c r="C86">
-        <v>-0.01720282476015583</v>
+        <v>-0.03073153971939559</v>
       </c>
       <c r="D86">
-        <v>-0.08896423613001787</v>
+        <v>0.1109134938902272</v>
       </c>
       <c r="E86">
-        <v>0.06221806810812461</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04323423466396358</v>
+      </c>
+      <c r="F86">
+        <v>-0.01313667138135812</v>
+      </c>
+      <c r="G86">
+        <v>0.0215510386327154</v>
+      </c>
+      <c r="H86">
+        <v>-0.01027051101756632</v>
+      </c>
+      <c r="I86">
+        <v>-0.08144070986548048</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.0177425182624121</v>
+        <v>0.01061630540176864</v>
       </c>
       <c r="C87">
-        <v>-0.03160135983954097</v>
+        <v>-0.05626834326638857</v>
       </c>
       <c r="D87">
-        <v>-0.1255648729126607</v>
+        <v>0.1436535144446732</v>
       </c>
       <c r="E87">
-        <v>0.05055585124020493</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.01333613919263413</v>
+      </c>
+      <c r="F87">
+        <v>0.03789019847238147</v>
+      </c>
+      <c r="G87">
+        <v>-0.06858196619648434</v>
+      </c>
+      <c r="H87">
+        <v>-0.01407161249594178</v>
+      </c>
+      <c r="I87">
+        <v>0.04362889816077255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.06134517661201</v>
+        <v>0.03258018360290356</v>
       </c>
       <c r="C88">
-        <v>-0.0466481473361725</v>
+        <v>-0.06945960804786544</v>
       </c>
       <c r="D88">
-        <v>-0.0423303425786204</v>
+        <v>0.01210373128740578</v>
       </c>
       <c r="E88">
-        <v>0.03706660834092074</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01229449844449338</v>
+      </c>
+      <c r="F88">
+        <v>0.0258163345762036</v>
+      </c>
+      <c r="G88">
+        <v>-0.008461861628644238</v>
+      </c>
+      <c r="H88">
+        <v>-0.04509140328235414</v>
+      </c>
+      <c r="I88">
+        <v>-0.0521578025878141</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.2920060121328272</v>
+        <v>0.4077371198125497</v>
       </c>
       <c r="C89">
-        <v>0.3563941598608487</v>
+        <v>0.1845714889564047</v>
       </c>
       <c r="D89">
-        <v>-0.04526511898414701</v>
+        <v>0.0321361868982677</v>
       </c>
       <c r="E89">
-        <v>0.1025546075574464</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01989740942784753</v>
+      </c>
+      <c r="F89">
+        <v>0.06432534026113718</v>
+      </c>
+      <c r="G89">
+        <v>-0.04446576773838244</v>
+      </c>
+      <c r="H89">
+        <v>-0.1360605767855542</v>
+      </c>
+      <c r="I89">
+        <v>0.3688865373956415</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2330194985264941</v>
+        <v>0.3102282242351459</v>
       </c>
       <c r="C90">
-        <v>0.262294327613186</v>
+        <v>0.1238420338723209</v>
       </c>
       <c r="D90">
-        <v>-0.0378202502082694</v>
+        <v>0.03387932747857206</v>
       </c>
       <c r="E90">
-        <v>0.005292324874441213</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01806840557914907</v>
+      </c>
+      <c r="F90">
+        <v>-0.01692806575515845</v>
+      </c>
+      <c r="G90">
+        <v>-0.06683662235342633</v>
+      </c>
+      <c r="H90">
+        <v>0.02063328375765524</v>
+      </c>
+      <c r="I90">
+        <v>-0.07805986851418366</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1686390771397962</v>
+        <v>0.0797758646668433</v>
       </c>
       <c r="C91">
-        <v>-0.1671983626165539</v>
+        <v>-0.2050374171943041</v>
       </c>
       <c r="D91">
-        <v>0.1022319529684018</v>
+        <v>-0.1127000693812915</v>
       </c>
       <c r="E91">
-        <v>0.1153393638822757</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.07173611403988164</v>
+      </c>
+      <c r="F91">
+        <v>0.07672519319812937</v>
+      </c>
+      <c r="G91">
+        <v>-0.01837227371245656</v>
+      </c>
+      <c r="H91">
+        <v>0.001158982032653731</v>
+      </c>
+      <c r="I91">
+        <v>-0.1250590378983258</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2160564583687196</v>
+        <v>0.3293456727876782</v>
       </c>
       <c r="C92">
-        <v>0.2766883733402842</v>
+        <v>0.1590858991869769</v>
       </c>
       <c r="D92">
-        <v>0.03950351778551772</v>
+        <v>-0.004776667899391791</v>
       </c>
       <c r="E92">
-        <v>0.07963111366133417</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.0851926432990605</v>
+      </c>
+      <c r="F92">
+        <v>0.02386777457775194</v>
+      </c>
+      <c r="G92">
+        <v>-0.04549294658946011</v>
+      </c>
+      <c r="H92">
+        <v>-0.03793844681358042</v>
+      </c>
+      <c r="I92">
+        <v>0.1283453874782306</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2561001205767431</v>
+        <v>0.3294320283333085</v>
       </c>
       <c r="C93">
-        <v>0.2726423956168838</v>
+        <v>0.1325349476826321</v>
       </c>
       <c r="D93">
-        <v>-0.0169410254795145</v>
+        <v>-0.01569919845482384</v>
       </c>
       <c r="E93">
-        <v>0.00637079503878828</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02387345401698923</v>
+      </c>
+      <c r="F93">
+        <v>0.01439263931057642</v>
+      </c>
+      <c r="G93">
+        <v>0.01079367368293624</v>
+      </c>
+      <c r="H93">
+        <v>-0.005163808463325797</v>
+      </c>
+      <c r="I93">
+        <v>-0.1081693791916653</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3215722679695975</v>
+        <v>0.1567091945377772</v>
       </c>
       <c r="C94">
-        <v>-0.2376952801324815</v>
+        <v>-0.3496447045618841</v>
       </c>
       <c r="D94">
-        <v>0.3677900788595547</v>
+        <v>-0.34706549307143</v>
       </c>
       <c r="E94">
-        <v>-0.1619635606061774</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.03976886985619008</v>
+      </c>
+      <c r="F94">
+        <v>-0.1143280831452962</v>
+      </c>
+      <c r="G94">
+        <v>-0.2977220171190522</v>
+      </c>
+      <c r="H94">
+        <v>0.07511287286531902</v>
+      </c>
+      <c r="I94">
+        <v>0.4071132936755536</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.0262287127304448</v>
+        <v>0.0237937121223744</v>
       </c>
       <c r="C95">
-        <v>-0.03800819616194791</v>
+        <v>-0.06339102291488521</v>
       </c>
       <c r="D95">
-        <v>-0.07898627719594553</v>
+        <v>0.1097308139789287</v>
       </c>
       <c r="E95">
-        <v>0.1748682888455524</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.2041861184638952</v>
+      </c>
+      <c r="F95">
+        <v>-0.07406582347635435</v>
+      </c>
+      <c r="G95">
+        <v>0.1062941475647754</v>
+      </c>
+      <c r="H95">
+        <v>-0.3903089165325376</v>
+      </c>
+      <c r="I95">
+        <v>0.5139432115110413</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0005455553335116243</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0001626547783792954</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0005433559648724687</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.001178524760355184</v>
+      </c>
+      <c r="F97">
+        <v>-0.001772783685684426</v>
+      </c>
+      <c r="G97">
+        <v>0.001128929499370494</v>
+      </c>
+      <c r="H97">
+        <v>-0.0004285847481713943</v>
+      </c>
+      <c r="I97">
+        <v>0.0003306379302679468</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1517167206871083</v>
+        <v>0.1188106551291048</v>
       </c>
       <c r="C98">
-        <v>-0.0652688542270515</v>
+        <v>-0.1376236608279029</v>
       </c>
       <c r="D98">
-        <v>-0.1056540676277683</v>
+        <v>0.05843683269901988</v>
       </c>
       <c r="E98">
-        <v>-0.2659547562522372</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.2683300831409106</v>
+      </c>
+      <c r="F98">
+        <v>-0.1694721210664456</v>
+      </c>
+      <c r="G98">
+        <v>0.260676009053913</v>
+      </c>
+      <c r="H98">
+        <v>0.1515473590314403</v>
+      </c>
+      <c r="I98">
+        <v>0.04261998898092647</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.001144632216567174</v>
+        <v>0.0009486516795954386</v>
       </c>
       <c r="C101">
-        <v>-0.02255250402095537</v>
+        <v>-0.03039805961647107</v>
       </c>
       <c r="D101">
-        <v>-0.1030764025832531</v>
+        <v>0.09783877468434661</v>
       </c>
       <c r="E101">
-        <v>0.01072984724329633</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.03794000771640037</v>
+      </c>
+      <c r="F101">
+        <v>0.02997511729089368</v>
+      </c>
+      <c r="G101">
+        <v>-0.006353732255363178</v>
+      </c>
+      <c r="H101">
+        <v>-0.1207201143573563</v>
+      </c>
+      <c r="I101">
+        <v>-0.02394211793494319</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1205722419489756</v>
+        <v>0.04256141002898813</v>
       </c>
       <c r="C102">
-        <v>-0.1417535372682513</v>
+        <v>-0.1517240794748619</v>
       </c>
       <c r="D102">
-        <v>0.07614226743295378</v>
+        <v>-0.09557725270248249</v>
       </c>
       <c r="E102">
-        <v>-0.01906174626435584</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.031283043416652</v>
+      </c>
+      <c r="F102">
+        <v>-0.06449907779453577</v>
+      </c>
+      <c r="G102">
+        <v>0.005227280175792602</v>
+      </c>
+      <c r="H102">
+        <v>-0.04961709073967338</v>
+      </c>
+      <c r="I102">
+        <v>-0.01979688917811545</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
